--- a/public/templates/position-import-template.xlsx
+++ b/public/templates/position-import-template.xlsx
@@ -3,7 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="Template" sheetId="1" r:id="rId1"/>
+    <sheet name="Panduan" sheetId="1" r:id="rId1"/>
+    <sheet name="Data Position" sheetId="2" r:id="rId2"/>
   </sheets>
 </workbook>
 </file>
@@ -397,15 +398,252 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:A44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <cols>
+    <col min="1" max="1" width="80.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>PANDUAN IMPORT POSITION/JABATAN</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>KOLOM WAJIB:</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>1. Title - Nama jabatan/posisi (wajib)</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>KOLOM OPSIONAL:</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>- Code - Kode unik jabatan (opsional, jika kosong akan auto-generate)</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>- Description - Deskripsi jabatan</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>- Level - Level/tingkatan jabatan (angka: 1-10)</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>- Active Status - Status aktif (true/false), default: true</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>CONTOH DATA:</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>Code: MGR-001, SPV-001, STF-001</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>Title: Manager, Supervisor, Staff, Assistant Manager</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>Description: Deskripsi lengkap tentang jabatan</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>Level: 1 (entry level) sampai 10 (top management)</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>Active Status: true (aktif) atau false (tidak aktif)</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>LEVEL JABATAN (REFERENSI):</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>1-2: Entry Level (Staff, Junior)</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>3-4: Mid Level (Senior Staff, Coordinator)</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>5-6: Supervisory (Supervisor, Team Lead)</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>7-8: Managerial (Manager, Senior Manager)</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>9-10: Executive (Director, C-Level)</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>CATATAN PENTING:</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>✅ Jika Title sudah ada, data akan di-UPDATE</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>✅ Jika Title belum ada, data akan DIBUAT BARU</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>✅ Active Status: gunakan "true" atau "false" (lowercase)</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>✅ Level harus berupa angka (1-10)</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>✅ Code harus unik jika diisi</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>LANGKAH IMPORT:</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>1. Isi data position di sheet "Data Position"</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>2. Upload file Excel di halaman Import Position</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>3. Mapping kolom akan otomatis terdeteksi</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>4. Test import untuk validasi data</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>5. Klik Import untuk proses ke database</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>TIPS:</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>💡 Gunakan format Excel (.xlsx) untuk hasil terbaik</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>💡 Pastikan Title tidak ada yang duplicate</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>💡 Level membantu dalam struktur organisasi</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>💡 Code bisa dikosongkan, sistem akan generate otomatis</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:A44"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <cols>
     <col min="1" max="1" width="15.83203125" customWidth="1"/>
-    <col min="2" max="2" width="30.83203125" customWidth="1"/>
+    <col min="2" max="2" width="25.83203125" customWidth="1"/>
     <col min="3" max="3" width="40.83203125" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" customWidth="1"/>
     <col min="5" max="5" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -428,24 +666,58 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Contoh: MGR</v>
+        <v>MGR-001</v>
       </c>
       <c r="B2" t="str">
         <v>Manager</v>
       </c>
       <c r="C2" t="str">
-        <v>Manajerial level menengah</v>
+        <v>Managerial position with team leadership</v>
       </c>
       <c r="D2" t="str">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E2" t="str">
         <v>true</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>SPV-001</v>
+      </c>
+      <c r="B3" t="str">
+        <v>Supervisor</v>
+      </c>
+      <c r="C3" t="str">
+        <v>Supervisory role overseeing staff</v>
+      </c>
+      <c r="D3" t="str">
+        <v>4</v>
+      </c>
+      <c r="E3" t="str">
+        <v>true</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>STF-001</v>
+      </c>
+      <c r="B4" t="str">
+        <v>Staff</v>
+      </c>
+      <c r="C4" t="str">
+        <v>General staff position</v>
+      </c>
+      <c r="D4" t="str">
+        <v>2</v>
+      </c>
+      <c r="E4" t="str">
+        <v>true</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E4"/>
   </ignoredErrors>
 </worksheet>
 </file>